--- a/output/ejecucion_1/gridsearch_results/base0/b0_ci_results_gs_rf_s.xlsx
+++ b/output/ejecucion_1/gridsearch_results/base0/b0_ci_results_gs_rf_s.xlsx
@@ -561,16 +561,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>123.8398740768433</v>
+        <v>177.8756679058075</v>
       </c>
       <c r="C2">
-        <v>0.63941113446166</v>
+        <v>0.9407489813229829</v>
       </c>
       <c r="D2">
-        <v>0.6107005119323731</v>
+        <v>3.572156095504761</v>
       </c>
       <c r="E2">
-        <v>0.5039707750737999</v>
+        <v>0.2213148824203648</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -585,28 +585,28 @@
         <v>16</v>
       </c>
       <c r="J2">
-        <v>0.8013468013468014</v>
+        <v>0.8061224489795918</v>
       </c>
       <c r="K2">
-        <v>0.8047138047138047</v>
+        <v>0.8163265306122449</v>
       </c>
       <c r="L2">
-        <v>0.8243243243243243</v>
+        <v>0.826530612244898</v>
       </c>
       <c r="M2">
-        <v>0.8175675675675675</v>
+        <v>0.7610921501706485</v>
       </c>
       <c r="N2">
-        <v>0.8209459459459459</v>
+        <v>0.8122866894197952</v>
       </c>
       <c r="O2">
-        <v>0.8137796887796886</v>
+        <v>0.8044716862854356</v>
       </c>
       <c r="P2">
-        <v>0.009095708329412132</v>
+        <v>0.02268354907634393</v>
       </c>
       <c r="Q2">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -614,16 +614,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>333.8809197425842</v>
+        <v>376.8707745552063</v>
       </c>
       <c r="C3">
-        <v>72.52372542294519</v>
+        <v>2.407305547047327</v>
       </c>
       <c r="D3">
-        <v>4.26108283996582</v>
+        <v>7.384680557250976</v>
       </c>
       <c r="E3">
-        <v>0.3888589512043101</v>
+        <v>0.2725876950962537</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -638,28 +638,28 @@
         <v>17</v>
       </c>
       <c r="J3">
-        <v>0.797979797979798</v>
+        <v>0.7993197278911565</v>
       </c>
       <c r="K3">
-        <v>0.8013468013468014</v>
+        <v>0.8129251700680272</v>
       </c>
       <c r="L3">
-        <v>0.8277027027027027</v>
+        <v>0.8401360544217688</v>
       </c>
       <c r="M3">
-        <v>0.8108108108108109</v>
+        <v>0.757679180887372</v>
       </c>
       <c r="N3">
-        <v>0.8108108108108109</v>
+        <v>0.8088737201365188</v>
       </c>
       <c r="O3">
-        <v>0.8097301847301848</v>
+        <v>0.8037867706809687</v>
       </c>
       <c r="P3">
-        <v>0.01033150147327284</v>
+        <v>0.02674517576854003</v>
       </c>
       <c r="Q3">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -667,16 +667,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>547.543102645874</v>
+        <v>782.3014678955078</v>
       </c>
       <c r="C4">
-        <v>67.56303750927204</v>
+        <v>1.759004667024095</v>
       </c>
       <c r="D4">
-        <v>4.791649675369262</v>
+        <v>6.791393232345581</v>
       </c>
       <c r="E4">
-        <v>2.287750392674554</v>
+        <v>0.2968857988273878</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -691,28 +691,28 @@
         <v>18</v>
       </c>
       <c r="J4">
-        <v>0.8080808080808081</v>
+        <v>0.7891156462585034</v>
       </c>
       <c r="K4">
-        <v>0.8047138047138047</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L4">
-        <v>0.8277027027027027</v>
+        <v>0.8435374149659864</v>
       </c>
       <c r="M4">
-        <v>0.8175675675675675</v>
+        <v>0.7610921501706485</v>
       </c>
       <c r="N4">
-        <v>0.8108108108108109</v>
+        <v>0.8122866894197952</v>
       </c>
       <c r="O4">
-        <v>0.8137751387751389</v>
+        <v>0.8031111420677485</v>
       </c>
       <c r="P4">
-        <v>0.008144691159394687</v>
+        <v>0.02728027161356587</v>
       </c>
       <c r="Q4">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -720,16 +720,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>297.0070371627808</v>
+        <v>304.7774276256561</v>
       </c>
       <c r="C5">
-        <v>5.083700249789515</v>
+        <v>8.304066829315884</v>
       </c>
       <c r="D5">
-        <v>7.086884689331055</v>
+        <v>7.83285756111145</v>
       </c>
       <c r="E5">
-        <v>0.7590012018805899</v>
+        <v>0.9741927477823192</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -744,28 +744,28 @@
         <v>19</v>
       </c>
       <c r="J5">
-        <v>0.7912457912457912</v>
+        <v>0.8027210884353742</v>
       </c>
       <c r="K5">
-        <v>0.8114478114478114</v>
+        <v>0.8197278911564626</v>
       </c>
       <c r="L5">
-        <v>0.8141891891891891</v>
+        <v>0.8231292517006803</v>
       </c>
       <c r="M5">
-        <v>0.8040540540540541</v>
+        <v>0.7508532423208191</v>
       </c>
       <c r="N5">
-        <v>0.8108108108108109</v>
+        <v>0.8156996587030717</v>
       </c>
       <c r="O5">
-        <v>0.8063495313495312</v>
+        <v>0.8024262264632815</v>
       </c>
       <c r="P5">
-        <v>0.008255275774563092</v>
+        <v>0.02669833888278899</v>
       </c>
       <c r="Q5">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -773,16 +773,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>586.9291641235352</v>
+        <v>591.239403963089</v>
       </c>
       <c r="C6">
-        <v>1.570917655408949</v>
+        <v>5.670939883702022</v>
       </c>
       <c r="D6">
-        <v>6.512590789794922</v>
+        <v>7.526618576049804</v>
       </c>
       <c r="E6">
-        <v>1.276242602153955</v>
+        <v>1.376654420716162</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -797,28 +797,28 @@
         <v>20</v>
       </c>
       <c r="J6">
-        <v>0.8013468013468014</v>
+        <v>0.8129251700680272</v>
       </c>
       <c r="K6">
-        <v>0.797979797979798</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L6">
-        <v>0.8209459459459459</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M6">
-        <v>0.8040540540540541</v>
+        <v>0.7440273037542662</v>
       </c>
       <c r="N6">
-        <v>0.8006756756756757</v>
+        <v>0.8327645051194539</v>
       </c>
       <c r="O6">
-        <v>0.805000455000455</v>
+        <v>0.8065148243597781</v>
       </c>
       <c r="P6">
-        <v>0.008203619719059117</v>
+        <v>0.03275092340313617</v>
       </c>
       <c r="Q6">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -826,16 +826,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1180.195322132111</v>
+        <v>1166.34433965683</v>
       </c>
       <c r="C7">
-        <v>5.18168303130383</v>
+        <v>14.01316965320202</v>
       </c>
       <c r="D7">
-        <v>8.714325094223023</v>
+        <v>7.445604944229126</v>
       </c>
       <c r="E7">
-        <v>1.16724068521518</v>
+        <v>1.307729182750477</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -850,25 +850,25 @@
         <v>21</v>
       </c>
       <c r="J7">
-        <v>0.8013468013468014</v>
+        <v>0.8061224489795918</v>
       </c>
       <c r="K7">
-        <v>0.797979797979798</v>
+        <v>0.8197278911564626</v>
       </c>
       <c r="L7">
-        <v>0.8243243243243243</v>
+        <v>0.826530612244898</v>
       </c>
       <c r="M7">
-        <v>0.8108108108108109</v>
+        <v>0.7542662116040956</v>
       </c>
       <c r="N7">
-        <v>0.8108108108108109</v>
+        <v>0.8225255972696246</v>
       </c>
       <c r="O7">
-        <v>0.8090545090545092</v>
+        <v>0.8058345522509345</v>
       </c>
       <c r="P7">
-        <v>0.009180353300265145</v>
+        <v>0.0266807773148697</v>
       </c>
       <c r="Q7">
         <v>22</v>
@@ -879,16 +879,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>405.2816207885742</v>
+        <v>397.4309146881104</v>
       </c>
       <c r="C8">
-        <v>5.384049255575539</v>
+        <v>4.476069470448274</v>
       </c>
       <c r="D8">
-        <v>6.08911805152893</v>
+        <v>6.306150341033936</v>
       </c>
       <c r="E8">
-        <v>0.5108689322631135</v>
+        <v>1.7283004849856</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -903,28 +903,28 @@
         <v>22</v>
       </c>
       <c r="J8">
-        <v>0.8013468013468014</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="K8">
-        <v>0.797979797979798</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L8">
-        <v>0.8141891891891891</v>
+        <v>0.8401360544217688</v>
       </c>
       <c r="M8">
-        <v>0.8074324324324325</v>
+        <v>0.7610921501706485</v>
       </c>
       <c r="N8">
-        <v>0.8040540540540541</v>
+        <v>0.8191126279863481</v>
       </c>
       <c r="O8">
-        <v>0.805000455000455</v>
+        <v>0.8078776903252768</v>
       </c>
       <c r="P8">
-        <v>0.005547645176014141</v>
+        <v>0.02592732945299957</v>
       </c>
       <c r="Q8">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -932,16 +932,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>780.8350159168243</v>
+        <v>777.5685607433319</v>
       </c>
       <c r="C9">
-        <v>3.928186686787501</v>
+        <v>5.91309548331926</v>
       </c>
       <c r="D9">
-        <v>8.394696426391601</v>
+        <v>6.03818531036377</v>
       </c>
       <c r="E9">
-        <v>0.6835524589257511</v>
+        <v>1.518092554301412</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -956,28 +956,28 @@
         <v>23</v>
       </c>
       <c r="J9">
-        <v>0.8013468013468014</v>
+        <v>0.8129251700680272</v>
       </c>
       <c r="K9">
-        <v>0.8080808080808081</v>
+        <v>0.8129251700680272</v>
       </c>
       <c r="L9">
-        <v>0.8108108108108109</v>
+        <v>0.826530612244898</v>
       </c>
       <c r="M9">
-        <v>0.8108108108108109</v>
+        <v>0.7508532423208191</v>
       </c>
       <c r="N9">
-        <v>0.8175675675675675</v>
+        <v>0.8156996587030717</v>
       </c>
       <c r="O9">
-        <v>0.8097233597233597</v>
+        <v>0.8037867706809687</v>
       </c>
       <c r="P9">
-        <v>0.0052299407754327</v>
+        <v>0.02693762551332924</v>
       </c>
       <c r="Q9">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -985,16 +985,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1540.888037061691</v>
+        <v>1530.518642759323</v>
       </c>
       <c r="C10">
-        <v>12.47347246591454</v>
+        <v>19.95350116357993</v>
       </c>
       <c r="D10">
-        <v>8.888923597335815</v>
+        <v>9.120698499679566</v>
       </c>
       <c r="E10">
-        <v>0.5511721855782936</v>
+        <v>0.6185776598492293</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -1009,28 +1009,28 @@
         <v>24</v>
       </c>
       <c r="J10">
-        <v>0.7912457912457912</v>
+        <v>0.8129251700680272</v>
       </c>
       <c r="K10">
-        <v>0.797979797979798</v>
+        <v>0.8197278911564626</v>
       </c>
       <c r="L10">
-        <v>0.8040540540540541</v>
+        <v>0.8299319727891157</v>
       </c>
       <c r="M10">
-        <v>0.8074324324324325</v>
+        <v>0.7610921501706485</v>
       </c>
       <c r="N10">
-        <v>0.8141891891891891</v>
+        <v>0.8122866894197952</v>
       </c>
       <c r="O10">
-        <v>0.8029802529802529</v>
+        <v>0.8071927747208099</v>
       </c>
       <c r="P10">
-        <v>0.007865333355499037</v>
+        <v>0.02390931274686622</v>
       </c>
       <c r="Q10">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1038,16 +1038,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>266.8753853797913</v>
+        <v>263.4385650157928</v>
       </c>
       <c r="C11">
-        <v>1.531882147805534</v>
+        <v>4.74463789733746</v>
       </c>
       <c r="D11">
-        <v>7.960315608978272</v>
+        <v>7.125996732711792</v>
       </c>
       <c r="E11">
-        <v>0.5053414175844808</v>
+        <v>0.8269984654629629</v>
       </c>
       <c r="F11">
         <v>20</v>
@@ -1062,28 +1062,28 @@
         <v>25</v>
       </c>
       <c r="J11">
-        <v>0.835016835016835</v>
+        <v>0.7993197278911565</v>
       </c>
       <c r="K11">
-        <v>0.797979797979798</v>
+        <v>0.8197278911564626</v>
       </c>
       <c r="L11">
-        <v>0.8209459459459459</v>
+        <v>0.8367346938775511</v>
       </c>
       <c r="M11">
-        <v>0.8108108108108109</v>
+        <v>0.7713310580204779</v>
       </c>
       <c r="N11">
-        <v>0.8074324324324325</v>
+        <v>0.8361774744027304</v>
       </c>
       <c r="O11">
-        <v>0.8144371644371645</v>
+        <v>0.8126581690696757</v>
       </c>
       <c r="P11">
-        <v>0.01264079664966056</v>
+        <v>0.02477362250985367</v>
       </c>
       <c r="Q11">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1091,16 +1091,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>512.4641512393952</v>
+        <v>510.3491667270661</v>
       </c>
       <c r="C12">
-        <v>9.618075306053294</v>
+        <v>13.37637986964505</v>
       </c>
       <c r="D12">
-        <v>8.036107778549194</v>
+        <v>7.636282348632813</v>
       </c>
       <c r="E12">
-        <v>0.7800248679267622</v>
+        <v>0.9824854023435741</v>
       </c>
       <c r="F12">
         <v>20</v>
@@ -1115,28 +1115,28 @@
         <v>26</v>
       </c>
       <c r="J12">
-        <v>0.8282828282828283</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="K12">
-        <v>0.8047138047138047</v>
+        <v>0.8197278911564626</v>
       </c>
       <c r="L12">
-        <v>0.831081081081081</v>
+        <v>0.8401360544217688</v>
       </c>
       <c r="M12">
-        <v>0.8243243243243243</v>
+        <v>0.7747440273037542</v>
       </c>
       <c r="N12">
-        <v>0.8141891891891891</v>
+        <v>0.8395904436860068</v>
       </c>
       <c r="O12">
-        <v>0.8205182455182456</v>
+        <v>0.8167444452183602</v>
       </c>
       <c r="P12">
-        <v>0.009758952604363675</v>
+        <v>0.02405901353592557</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1144,16 +1144,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>998.7322397708892</v>
+        <v>996.4605582714081</v>
       </c>
       <c r="C13">
-        <v>8.149595092444915</v>
+        <v>23.23033720811367</v>
       </c>
       <c r="D13">
-        <v>8.126186323165893</v>
+        <v>8.409752607345581</v>
       </c>
       <c r="E13">
-        <v>0.9232653044406635</v>
+        <v>1.249800410372848</v>
       </c>
       <c r="F13">
         <v>20</v>
@@ -1168,28 +1168,28 @@
         <v>27</v>
       </c>
       <c r="J13">
-        <v>0.8249158249158249</v>
+        <v>0.8129251700680272</v>
       </c>
       <c r="K13">
-        <v>0.8080808080808081</v>
+        <v>0.8197278911564626</v>
       </c>
       <c r="L13">
-        <v>0.8209459459459459</v>
+        <v>0.8401360544217688</v>
       </c>
       <c r="M13">
-        <v>0.8243243243243243</v>
+        <v>0.7713310580204779</v>
       </c>
       <c r="N13">
-        <v>0.8175675675675675</v>
+        <v>0.8361774744027304</v>
       </c>
       <c r="O13">
-        <v>0.8191668941668941</v>
+        <v>0.8160595296138933</v>
       </c>
       <c r="P13">
-        <v>0.006136342006386944</v>
+        <v>0.02452887280982832</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1197,16 +1197,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>383.5539176940918</v>
+        <v>386.2434721946717</v>
       </c>
       <c r="C14">
-        <v>6.453193727295755</v>
+        <v>14.16254438865905</v>
       </c>
       <c r="D14">
-        <v>7.614992046356202</v>
+        <v>7.490570878982544</v>
       </c>
       <c r="E14">
-        <v>0.680000832999396</v>
+        <v>0.9901348155294769</v>
       </c>
       <c r="F14">
         <v>20</v>
@@ -1221,28 +1221,28 @@
         <v>28</v>
       </c>
       <c r="J14">
-        <v>0.8047138047138047</v>
+        <v>0.8027210884353742</v>
       </c>
       <c r="K14">
-        <v>0.8114478114478114</v>
+        <v>0.8231292517006803</v>
       </c>
       <c r="L14">
-        <v>0.831081081081081</v>
+        <v>0.8231292517006803</v>
       </c>
       <c r="M14">
-        <v>0.8277027027027027</v>
+        <v>0.764505119453925</v>
       </c>
       <c r="N14">
-        <v>0.8108108108108109</v>
+        <v>0.8327645051194539</v>
       </c>
       <c r="O14">
-        <v>0.8171512421512421</v>
+        <v>0.8092498432820227</v>
       </c>
       <c r="P14">
-        <v>0.0103227300048196</v>
+        <v>0.02442511096283054</v>
       </c>
       <c r="Q14">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1250,16 +1250,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>748.2393566608429</v>
+        <v>749.927003288269</v>
       </c>
       <c r="C15">
-        <v>5.745415398058883</v>
+        <v>20.49930099344966</v>
       </c>
       <c r="D15">
-        <v>7.710045385360718</v>
+        <v>8.398996162414551</v>
       </c>
       <c r="E15">
-        <v>1.300259152177926</v>
+        <v>0.391807668511476</v>
       </c>
       <c r="F15">
         <v>20</v>
@@ -1274,28 +1274,28 @@
         <v>29</v>
       </c>
       <c r="J15">
-        <v>0.8114478114478114</v>
+        <v>0.8027210884353742</v>
       </c>
       <c r="K15">
-        <v>0.8013468013468014</v>
+        <v>0.8401360544217688</v>
       </c>
       <c r="L15">
-        <v>0.831081081081081</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M15">
-        <v>0.8344594594594594</v>
+        <v>0.764505119453925</v>
       </c>
       <c r="N15">
-        <v>0.8243243243243243</v>
+        <v>0.8361774744027304</v>
       </c>
       <c r="O15">
-        <v>0.8205318955318956</v>
+        <v>0.8153746140094263</v>
       </c>
       <c r="P15">
-        <v>0.01241155341922042</v>
+        <v>0.02869223141331998</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1303,16 +1303,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1482.825049448013</v>
+        <v>1488.630129623413</v>
       </c>
       <c r="C16">
-        <v>15.43733737359522</v>
+        <v>46.67295976236935</v>
       </c>
       <c r="D16">
-        <v>8.799094963073731</v>
+        <v>9.039989328384399</v>
       </c>
       <c r="E16">
-        <v>0.599454814077371</v>
+        <v>0.6175953866533848</v>
       </c>
       <c r="F16">
         <v>20</v>
@@ -1327,28 +1327,28 @@
         <v>30</v>
       </c>
       <c r="J16">
-        <v>0.8215488215488216</v>
+        <v>0.8231292517006803</v>
       </c>
       <c r="K16">
-        <v>0.8047138047138047</v>
+        <v>0.8367346938775511</v>
       </c>
       <c r="L16">
-        <v>0.8209459459459459</v>
+        <v>0.8299319727891157</v>
       </c>
       <c r="M16">
-        <v>0.8344594594594594</v>
+        <v>0.764505119453925</v>
       </c>
       <c r="N16">
-        <v>0.8141891891891891</v>
+        <v>0.8361774744027304</v>
       </c>
       <c r="O16">
-        <v>0.8191714441714442</v>
+        <v>0.8180957024448006</v>
       </c>
       <c r="P16">
-        <v>0.009760844170296568</v>
+        <v>0.02724608954637612</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1356,16 +1356,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>499.704125547409</v>
+        <v>508.4906618118286</v>
       </c>
       <c r="C17">
-        <v>10.28620164901042</v>
+        <v>17.4000736966863</v>
       </c>
       <c r="D17">
-        <v>7.769541120529174</v>
+        <v>7.309190940856934</v>
       </c>
       <c r="E17">
-        <v>0.4059712072320306</v>
+        <v>0.6871656993215193</v>
       </c>
       <c r="F17">
         <v>20</v>
@@ -1380,28 +1380,28 @@
         <v>31</v>
       </c>
       <c r="J17">
-        <v>0.8181818181818182</v>
+        <v>0.8129251700680272</v>
       </c>
       <c r="K17">
-        <v>0.8148148148148148</v>
+        <v>0.8231292517006803</v>
       </c>
       <c r="L17">
-        <v>0.8445945945945946</v>
+        <v>0.8367346938775511</v>
       </c>
       <c r="M17">
-        <v>0.8243243243243243</v>
+        <v>0.7781569965870307</v>
       </c>
       <c r="N17">
-        <v>0.8074324324324325</v>
+        <v>0.8225255972696246</v>
       </c>
       <c r="O17">
-        <v>0.8218695968695968</v>
+        <v>0.8146943419005828</v>
       </c>
       <c r="P17">
-        <v>0.01260359144811018</v>
+        <v>0.01978060135989009</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1409,16 +1409,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>978.9741668224335</v>
+        <v>990.4337126731873</v>
       </c>
       <c r="C18">
-        <v>13.88801575846151</v>
+        <v>29.78327427788294</v>
       </c>
       <c r="D18">
-        <v>8.810144090652466</v>
+        <v>9.061641883850097</v>
       </c>
       <c r="E18">
-        <v>0.5056123413312267</v>
+        <v>0.2742336003534785</v>
       </c>
       <c r="F18">
         <v>20</v>
@@ -1433,28 +1433,28 @@
         <v>32</v>
       </c>
       <c r="J18">
-        <v>0.8249158249158249</v>
+        <v>0.8163265306122449</v>
       </c>
       <c r="K18">
-        <v>0.8114478114478114</v>
+        <v>0.8231292517006803</v>
       </c>
       <c r="L18">
-        <v>0.831081081081081</v>
+        <v>0.826530612244898</v>
       </c>
       <c r="M18">
-        <v>0.8277027027027027</v>
+        <v>0.7747440273037542</v>
       </c>
       <c r="N18">
-        <v>0.8141891891891891</v>
+        <v>0.8293515358361775</v>
       </c>
       <c r="O18">
-        <v>0.8218673218673219</v>
+        <v>0.814016391539551</v>
       </c>
       <c r="P18">
-        <v>0.007691011870815063</v>
+        <v>0.02011204577352122</v>
       </c>
       <c r="Q18">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1462,16 +1462,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2004.248878383637</v>
+        <v>1952.424470043182</v>
       </c>
       <c r="C19">
-        <v>23.07069342285068</v>
+        <v>60.83147377230532</v>
       </c>
       <c r="D19">
-        <v>8.954770469665528</v>
+        <v>9.057037544250488</v>
       </c>
       <c r="E19">
-        <v>0.6512492735337719</v>
+        <v>0.6533654318952201</v>
       </c>
       <c r="F19">
         <v>20</v>
@@ -1486,28 +1486,28 @@
         <v>33</v>
       </c>
       <c r="J19">
-        <v>0.8148148148148148</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="K19">
-        <v>0.8114478114478114</v>
+        <v>0.8231292517006803</v>
       </c>
       <c r="L19">
-        <v>0.8344594594594594</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M19">
-        <v>0.8209459459459459</v>
+        <v>0.7747440273037542</v>
       </c>
       <c r="N19">
-        <v>0.8141891891891891</v>
+        <v>0.8327645051194539</v>
       </c>
       <c r="O19">
-        <v>0.8191714441714442</v>
+        <v>0.8146989853962063</v>
       </c>
       <c r="P19">
-        <v>0.008250210354931795</v>
+        <v>0.02176167473958356</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1515,16 +1515,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>274.5577336311341</v>
+        <v>261.2609236717224</v>
       </c>
       <c r="C20">
-        <v>3.001570303647709</v>
+        <v>5.475550460297925</v>
       </c>
       <c r="D20">
-        <v>8.596285581588745</v>
+        <v>8.637612867355347</v>
       </c>
       <c r="E20">
-        <v>0.451225195701409</v>
+        <v>0.1145074565622185</v>
       </c>
       <c r="F20">
         <v>30</v>
@@ -1539,28 +1539,28 @@
         <v>34</v>
       </c>
       <c r="J20">
-        <v>0.8215488215488216</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="K20">
-        <v>0.797979797979798</v>
+        <v>0.8197278911564626</v>
       </c>
       <c r="L20">
-        <v>0.8108108108108109</v>
+        <v>0.8367346938775511</v>
       </c>
       <c r="M20">
-        <v>0.8108108108108109</v>
+        <v>0.7713310580204779</v>
       </c>
       <c r="N20">
-        <v>0.8040540540540541</v>
+        <v>0.8464163822525598</v>
       </c>
       <c r="O20">
-        <v>0.8090408590408591</v>
+        <v>0.816746766966172</v>
       </c>
       <c r="P20">
-        <v>0.00787311730395847</v>
+        <v>0.02609002923781039</v>
       </c>
       <c r="Q20">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1568,16 +1568,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>537.3781759738922</v>
+        <v>513.7093214988708</v>
       </c>
       <c r="C21">
-        <v>7.747334667108483</v>
+        <v>15.46061332312625</v>
       </c>
       <c r="D21">
-        <v>9.092509555816651</v>
+        <v>8.085756874084472</v>
       </c>
       <c r="E21">
-        <v>0.2285944864377902</v>
+        <v>0.5085181779127111</v>
       </c>
       <c r="F21">
         <v>30</v>
@@ -1592,28 +1592,28 @@
         <v>35</v>
       </c>
       <c r="J21">
-        <v>0.8215488215488216</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="K21">
-        <v>0.8013468013468014</v>
+        <v>0.8163265306122449</v>
       </c>
       <c r="L21">
-        <v>0.8209459459459459</v>
+        <v>0.8401360544217688</v>
       </c>
       <c r="M21">
-        <v>0.8277027027027027</v>
+        <v>0.7781569965870307</v>
       </c>
       <c r="N21">
-        <v>0.8209459459459459</v>
+        <v>0.8327645051194539</v>
       </c>
       <c r="O21">
-        <v>0.8184980434980436</v>
+        <v>0.8153815792528615</v>
       </c>
       <c r="P21">
-        <v>0.00894631273663587</v>
+        <v>0.02161400521183873</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1621,16 +1621,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1039.093870687485</v>
+        <v>998.1395613193512</v>
       </c>
       <c r="C22">
-        <v>13.24793461782634</v>
+        <v>25.82908907591275</v>
       </c>
       <c r="D22">
-        <v>9.379777479171754</v>
+        <v>8.695839166641235</v>
       </c>
       <c r="E22">
-        <v>0.2231066089787922</v>
+        <v>0.7473292598268062</v>
       </c>
       <c r="F22">
         <v>30</v>
@@ -1645,28 +1645,28 @@
         <v>36</v>
       </c>
       <c r="J22">
-        <v>0.8181818181818182</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="K22">
-        <v>0.8114478114478114</v>
+        <v>0.826530612244898</v>
       </c>
       <c r="L22">
-        <v>0.8243243243243243</v>
+        <v>0.8469387755102041</v>
       </c>
       <c r="M22">
-        <v>0.8175675675675675</v>
+        <v>0.7747440273037542</v>
       </c>
       <c r="N22">
-        <v>0.8209459459459459</v>
+        <v>0.8361774744027304</v>
       </c>
       <c r="O22">
-        <v>0.8184934934934935</v>
+        <v>0.8187829397970793</v>
       </c>
       <c r="P22">
-        <v>0.004256976086810074</v>
+        <v>0.02522104143060901</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1674,16 +1674,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>394.0207178592682</v>
+        <v>385.6362075328827</v>
       </c>
       <c r="C23">
-        <v>8.374837371850226</v>
+        <v>15.74039055775542</v>
       </c>
       <c r="D23">
-        <v>8.54158935546875</v>
+        <v>8.598596906661987</v>
       </c>
       <c r="E23">
-        <v>0.4872144158395334</v>
+        <v>0.6162047651415939</v>
       </c>
       <c r="F23">
         <v>30</v>
@@ -1698,28 +1698,28 @@
         <v>37</v>
       </c>
       <c r="J23">
-        <v>0.8114478114478114</v>
+        <v>0.8027210884353742</v>
       </c>
       <c r="K23">
-        <v>0.8013468013468014</v>
+        <v>0.826530612244898</v>
       </c>
       <c r="L23">
-        <v>0.831081081081081</v>
+        <v>0.826530612244898</v>
       </c>
       <c r="M23">
-        <v>0.8277027027027027</v>
+        <v>0.764505119453925</v>
       </c>
       <c r="N23">
-        <v>0.8108108108108109</v>
+        <v>0.8361774744027304</v>
       </c>
       <c r="O23">
-        <v>0.8164778414778414</v>
+        <v>0.8112929813563652</v>
       </c>
       <c r="P23">
-        <v>0.01118585652114521</v>
+        <v>0.02586963530479581</v>
       </c>
       <c r="Q23">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1727,16 +1727,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>778.3293496131897</v>
+        <v>753.896761226654</v>
       </c>
       <c r="C24">
-        <v>8.360444503396574</v>
+        <v>23.53858685271891</v>
       </c>
       <c r="D24">
-        <v>8.761239051818848</v>
+        <v>8.820391368865966</v>
       </c>
       <c r="E24">
-        <v>0.442715284777057</v>
+        <v>0.2833677154415339</v>
       </c>
       <c r="F24">
         <v>30</v>
@@ -1751,28 +1751,28 @@
         <v>38</v>
       </c>
       <c r="J24">
-        <v>0.8114478114478114</v>
+        <v>0.7993197278911565</v>
       </c>
       <c r="K24">
-        <v>0.797979797979798</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L24">
-        <v>0.8344594594594594</v>
+        <v>0.8367346938775511</v>
       </c>
       <c r="M24">
-        <v>0.831081081081081</v>
+        <v>0.7610921501706485</v>
       </c>
       <c r="N24">
-        <v>0.8175675675675675</v>
+        <v>0.8395904436860068</v>
       </c>
       <c r="O24">
-        <v>0.8185071435071436</v>
+        <v>0.8140140697917392</v>
       </c>
       <c r="P24">
-        <v>0.01330164784397005</v>
+        <v>0.03020021478231612</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1780,16 +1780,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1549.617677545547</v>
+        <v>1505.007720565796</v>
       </c>
       <c r="C25">
-        <v>15.82276644714043</v>
+        <v>44.72842472902149</v>
       </c>
       <c r="D25">
-        <v>9.115205717086791</v>
+        <v>8.710049867630005</v>
       </c>
       <c r="E25">
-        <v>0.6323680114921477</v>
+        <v>0.7417348202186183</v>
       </c>
       <c r="F25">
         <v>30</v>
@@ -1804,28 +1804,28 @@
         <v>39</v>
       </c>
       <c r="J25">
-        <v>0.835016835016835</v>
+        <v>0.8231292517006803</v>
       </c>
       <c r="K25">
-        <v>0.797979797979798</v>
+        <v>0.8231292517006803</v>
       </c>
       <c r="L25">
-        <v>0.8277027027027027</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M25">
-        <v>0.8344594594594594</v>
+        <v>0.7679180887372014</v>
       </c>
       <c r="N25">
-        <v>0.8074324324324325</v>
+        <v>0.8395904436860068</v>
       </c>
       <c r="O25">
-        <v>0.8205182455182456</v>
+        <v>0.8174200738315804</v>
       </c>
       <c r="P25">
-        <v>0.01506919433943827</v>
+        <v>0.02553583004179952</v>
       </c>
       <c r="Q25">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1833,16 +1833,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>528.0233273029328</v>
+        <v>509.961246585846</v>
       </c>
       <c r="C26">
-        <v>9.856576330965382</v>
+        <v>15.80214256019976</v>
       </c>
       <c r="D26">
-        <v>8.269555282592773</v>
+        <v>8.712324142456055</v>
       </c>
       <c r="E26">
-        <v>0.5944068290971195</v>
+        <v>0.1067836011461316</v>
       </c>
       <c r="F26">
         <v>30</v>
@@ -1857,28 +1857,28 @@
         <v>40</v>
       </c>
       <c r="J26">
-        <v>0.8249158249158249</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="K26">
-        <v>0.8148148148148148</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L26">
-        <v>0.8378378378378378</v>
+        <v>0.8299319727891157</v>
       </c>
       <c r="M26">
-        <v>0.8175675675675675</v>
+        <v>0.7747440273037542</v>
       </c>
       <c r="N26">
-        <v>0.8040540540540541</v>
+        <v>0.8191126279863481</v>
       </c>
       <c r="O26">
-        <v>0.8198380198380197</v>
+        <v>0.813329154187272</v>
       </c>
       <c r="P26">
-        <v>0.01121872248093973</v>
+        <v>0.02103597871572868</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1886,16 +1886,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1020.551125574112</v>
+        <v>1010.310528707504</v>
       </c>
       <c r="C27">
-        <v>11.50730112578416</v>
+        <v>28.14798055826612</v>
       </c>
       <c r="D27">
-        <v>8.250566673278808</v>
+        <v>7.761885595321655</v>
       </c>
       <c r="E27">
-        <v>1.171821204730183</v>
+        <v>0.8741588029759111</v>
       </c>
       <c r="F27">
         <v>30</v>
@@ -1910,28 +1910,28 @@
         <v>41</v>
       </c>
       <c r="J27">
-        <v>0.8249158249158249</v>
+        <v>0.8129251700680272</v>
       </c>
       <c r="K27">
-        <v>0.8215488215488216</v>
+        <v>0.8367346938775511</v>
       </c>
       <c r="L27">
-        <v>0.8412162162162162</v>
+        <v>0.8299319727891157</v>
       </c>
       <c r="M27">
-        <v>0.831081081081081</v>
+        <v>0.7781569965870307</v>
       </c>
       <c r="N27">
-        <v>0.8141891891891891</v>
+        <v>0.825938566552901</v>
       </c>
       <c r="O27">
-        <v>0.8265902265902266</v>
+        <v>0.8167374799749252</v>
       </c>
       <c r="P27">
-        <v>0.009122417015004922</v>
+        <v>0.02079245345781174</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1939,16 +1939,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1394.621477794647</v>
+        <v>1353.891480302811</v>
       </c>
       <c r="C28">
-        <v>215.5976871253009</v>
+        <v>220.3512901644178</v>
       </c>
       <c r="D28">
-        <v>2.670232582092285</v>
+        <v>2.476693916320801</v>
       </c>
       <c r="E28">
-        <v>1.711493842050063</v>
+        <v>1.772252121766471</v>
       </c>
       <c r="F28">
         <v>30</v>
@@ -1963,28 +1963,28 @@
         <v>42</v>
       </c>
       <c r="J28">
-        <v>0.8148148148148148</v>
+        <v>0.8129251700680272</v>
       </c>
       <c r="K28">
-        <v>0.8114478114478114</v>
+        <v>0.8197278911564626</v>
       </c>
       <c r="L28">
-        <v>0.8344594594594594</v>
+        <v>0.8299319727891157</v>
       </c>
       <c r="M28">
-        <v>0.831081081081081</v>
+        <v>0.7747440273037542</v>
       </c>
       <c r="N28">
-        <v>0.8175675675675675</v>
+        <v>0.8395904436860068</v>
       </c>
       <c r="O28">
-        <v>0.8218741468741471</v>
+        <v>0.8153839010006733</v>
       </c>
       <c r="P28">
-        <v>0.009167845932726728</v>
+        <v>0.02224463101025874</v>
       </c>
       <c r="Q28">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
